--- a/wwwroot/dummy/Assistant - iSmile.xlsx
+++ b/wwwroot/dummy/Assistant - iSmile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\harpun\sealab\api\wwwroot\dummy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E138FC81-5C83-46CF-AF28-66AA772666BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F6368A-4617-4BC8-8384-7B84C2CAEC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>1103204038</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Position</t>
   </si>
   <si>
-    <t>1103204038114</t>
-  </si>
-  <si>
     <t>1103202098</t>
   </si>
   <si>
@@ -267,6 +264,12 @@
   </si>
   <si>
     <t>085161746300</t>
+  </si>
+  <si>
+    <t>whitefall</t>
+  </si>
+  <si>
+    <t>Kosongin2!</t>
   </si>
 </sst>
 </file>
@@ -971,7 +974,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1010,10 +1013,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -1033,48 +1036,48 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1082,7 +1085,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>14</v>
@@ -1097,122 +1100,122 @@
         <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1220,7 +1223,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1235,30 +1238,30 @@
         <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1266,7 +1269,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
